--- a/GoodSunLMS/src/main/resources/excel/Excel_template.xlsx
+++ b/GoodSunLMS/src/main/resources/excel/Excel_template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64B98DBF-419D-438C-9762-15286EABA8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ou.ikutei\git\GoodSunLMS_\GoodSunLMS\src\main\resources\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E9063B-AC03-441D-8EF0-F8CCE8626DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22015" yWindow="-104" windowWidth="22325" windowHeight="11924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>新入社員の日報</t>
   </si>
@@ -44,19 +49,16 @@
   <si>
     <t>所感</t>
   </si>
-  <si>
-    <t>先輩社員の方に相談したいこと</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +66,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,54 +335,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -688,147 +700,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
+    <col min="4" max="4" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B3" s="20">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="14">
         <v>45078</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19.5" customHeight="1">
+    <row r="5" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1">
+    <row r="6" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="1"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" ht="19.5" customHeight="1">
+    <row r="7" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" ht="19.5" customHeight="1">
+    <row r="8" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" ht="19.5" customHeight="1">
+    <row r="9" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="19.5" customHeight="1">
+    <row r="10" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B13" s="1"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B16" s="1"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B17" s="1"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B20" s="1"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B21" s="1"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B22" s="1"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B23" s="1"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" customHeight="1">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="2:4" ht="19.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="2:4" ht="19.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B12:D18"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -845,15 +835,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101000D8F77CBF0A2534F9509FAF6232E7B97" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b56741c68818c02055f012ce5e44eb4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b767478-c6a5-46ac-ac91-475c6fa29b26" xmlns:ns3="75365404-5c48-41d8-865a-7f2026b82160" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3797a4ed2471239fdb7af31dd85dd864" ns2:_="" ns3:_="">
     <xsd:import namespace="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
@@ -1064,14 +1045,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46958C1-D7A4-4DCF-AB75-AB4D6B251CF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0b767478-c6a5-46ac-ac91-475c6fa29b26"/>
+    <ds:schemaRef ds:uri="75365404-5c48-41d8-865a-7f2026b82160"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CF394E3-02EF-4959-9158-2FF10420412C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19CE2DD7-F0E8-4EC1-BD66-69537C22B1FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>